--- a/Relatorio/Resultados.xlsx
+++ b/Relatorio/Resultados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,42 +519,296 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PMN-03</t>
+          <t>BE-01</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
         <v>45102</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>11:30:00</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11:46:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>17.1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.77</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>22.26</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1863</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BE-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1863</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PM-04</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09:06:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>09:22:00</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>232</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-52.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1863</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PM-05</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10:27:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10:42:00</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>211</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-25.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1863</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PM-06</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11:03:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11:18:00</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>91</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K6" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1863</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PMN-02</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>09:38:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>09:55:00</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>48</v>
+      </c>
+      <c r="H7" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="K7" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1863</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Dup-02</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>09:38:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>09:55:00</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>48</v>
+      </c>
+      <c r="H8" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
